--- a/simulationOutput/energyAnalysis.xlsx
+++ b/simulationOutput/energyAnalysis.xlsx
@@ -1512,7 +1512,7 @@
         <v>17348.015427</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1532,7 +1532,7 @@
         <v>18818.835533</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1552,7 +1552,7 @@
         <v>22045.395091</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1572,7 +1572,7 @@
         <v>26798.964889</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1592,7 +1592,7 @@
         <v>35612.908946</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1612,7 +1612,7 @@
         <v>36691.620682</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1632,7 +1632,7 @@
         <v>30584.45626</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1652,7 +1652,7 @@
         <v>23119.001794</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1672,7 +1672,7 @@
         <v>13173.080281</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1692,7 +1692,7 @@
         <v>-0.0002890000032493845</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1712,7 +1712,7 @@
         <v>-0.001728000002913177</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1732,7 +1732,7 @@
         <v>-0.001402000001689885</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1752,7 +1752,7 @@
         <v>-0.0001370000027236529</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1772,7 +1772,7 @@
         <v>0.0008510000043315813</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1792,7 +1792,7 @@
         <v>-0.0006189999985508621</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1812,7 +1812,7 @@
         <v>0.001269000000320375</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1832,7 +1832,7 @@
         <v>27188.88597</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1852,7 +1852,7 @@
         <v>31487.78324</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1872,7 +1872,7 @@
         <v>38435.73946</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1892,7 +1892,7 @@
         <v>33601.02682899999</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1912,7 +1912,7 @@
         <v>24514.174455</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1932,7 +1932,7 @@
         <v>36050.828545</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1952,7 +1952,7 @@
         <v>37047.982421</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1972,7 +1972,7 @@
         <v>35351.89818</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1992,7 +1992,7 @@
         <v>30878.47514</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2012,7 +2012,7 @@
         <v>29686.773931</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2032,7 +2032,7 @@
         <v>25592.545062</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2052,7 +2052,7 @@
         <v>12545.432863</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2072,7 +2072,7 @@
         <v>25978.112319</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2092,7 +2092,7 @@
         <v>31015.63047</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2112,7 +2112,7 @@
         <v>20887.605816</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2132,7 +2132,7 @@
         <v>28480.393657</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2152,7 +2152,7 @@
         <v>3825.294379999999</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2172,7 +2172,7 @@
         <v>259.4310039999982</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2192,7 +2192,7 @@
         <v>-0.001886000005470123</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2212,7 +2212,7 @@
         <v>-0.0007039999982225709</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2232,7 +2232,7 @@
         <v>-0.001252000001841225</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2252,7 +2252,7 @@
         <v>7.400000322377309E-05</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2272,7 +2272,7 @@
         <v>-0.002939999998488929</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2292,7 +2292,7 @@
         <v>2879.774080000003</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2312,7 +2312,7 @@
         <v>38435.739461</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2332,7 +2332,7 @@
         <v>38435.738533</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2352,7 +2352,7 @@
         <v>38435.738851</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2372,7 +2372,7 @@
         <v>38435.738481</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2392,7 +2392,7 @@
         <v>38435.739</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2412,7 +2412,7 @@
         <v>30228.391263</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2432,7 +2432,7 @@
         <v>37238.509107</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2452,7 +2452,7 @@
         <v>25647.089379</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2472,7 +2472,7 @@
         <v>34135.510527</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2492,7 +2492,7 @@
         <v>33065.355171</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2512,7 +2512,7 @@
         <v>32412.494984</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2532,7 +2532,7 @@
         <v>31775.211029</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2552,7 +2552,7 @@
         <v>31320.868005</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2572,7 +2572,7 @@
         <v>31572.551693</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2592,7 +2592,7 @@
         <v>30644.147552</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2612,7 +2612,7 @@
         <v>17521.17803</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2632,7 +2632,7 @@
         <v>422.5628970000034</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2652,7 +2652,7 @@
         <v>-0.001668000004428905</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2672,7 +2672,7 @@
         <v>-0.001983000001928303</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2692,7 +2692,7 @@
         <v>-0.001248000000487082</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2712,7 +2712,7 @@
         <v>0.0001330000013695098</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2732,7 +2732,7 @@
         <v>-0.0001090000005206093</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2752,7 +2752,7 @@
         <v>-0.0008099999977275729</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2772,7 +2772,7 @@
         <v>10881.780789</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2792,7 +2792,7 @@
         <v>26754.88379699999</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2812,7 +2812,7 @@
         <v>29913.075301</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2832,7 +2832,7 @@
         <v>38435.738856</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2852,7 +2852,7 @@
         <v>28708.288469</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2872,7 +2872,7 @@
         <v>38435.739049</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2892,7 +2892,7 @@
         <v>34731.894934</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2912,7 +2912,7 @@
         <v>28336.424632</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2932,7 +2932,7 @@
         <v>35732.065322</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2952,7 +2952,7 @@
         <v>29745.12488</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2972,7 +2972,7 @@
         <v>28771.398402</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2992,7 +2992,7 @@
         <v>30072.77121</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3012,7 +3012,7 @@
         <v>32027.856253</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3032,7 +3032,7 @@
         <v>31238.782004</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3052,7 +3052,7 @@
         <v>30815.77604</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3072,7 +3072,7 @@
         <v>23427.543684</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3092,7 +3092,7 @@
         <v>36172.556625</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3112,7 +3112,7 @@
         <v>32534.681216</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3132,7 +3132,7 @@
         <v>33317.744914</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3152,7 +3152,7 @@
         <v>15370.964759</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3172,7 +3172,7 @@
         <v>7504.866317</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3192,7 +3192,7 @@
         <v>32360.849929</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3212,7 +3212,7 @@
         <v>17581.002832</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3232,7 +3232,7 @@
         <v>17788.00858</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3252,7 +3252,7 @@
         <v>23733.347237</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3272,7 +3272,7 @@
         <v>21426.401121</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3292,7 +3292,7 @@
         <v>33647.691626</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3312,7 +3312,7 @@
         <v>22691.225509</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3332,7 +3332,7 @@
         <v>28084.877761</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3352,7 +3352,7 @@
         <v>26962.53072</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3372,7 +3372,7 @@
         <v>21976.89272</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3392,7 +3392,7 @@
         <v>19189.008829</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3412,7 +3412,7 @@
         <v>26039.765043</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3432,7 +3432,7 @@
         <v>26848.905449</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3452,7 +3452,7 @@
         <v>24581.715154</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3472,7 +3472,7 @@
         <v>20376.696819</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3492,7 +3492,7 @@
         <v>18467.628932</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3512,7 +3512,7 @@
         <v>32341.221895</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3532,7 +3532,7 @@
         <v>35514.420618</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3552,7 +3552,7 @@
         <v>38435.738927</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3572,7 +3572,7 @@
         <v>38435.739214</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3592,7 +3592,7 @@
         <v>6033.685036999996</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3612,7 +3612,7 @@
         <v>26564.319492</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3632,7 +3632,7 @@
         <v>23846.064199</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3652,7 +3652,7 @@
         <v>91.78310300000157</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3672,7 +3672,7 @@
         <v>0.0006640000065090135</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3692,7 +3692,7 @@
         <v>0.0002170000007026829</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3712,7 +3712,7 @@
         <v>-0.000115999995614402</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3752,7 +3752,7 @@
         <v>4670.035695999999</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3772,7 +3772,7 @@
         <v>11600.805349</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3792,7 +3792,7 @@
         <v>-0.000778000001446344</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3812,7 +3812,7 @@
         <v>5970.496011000003</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3832,7 +3832,7 @@
         <v>18659.538133</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3852,7 +3852,7 @@
         <v>34121.61451699999</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3872,7 +3872,7 @@
         <v>19143.030165</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3892,7 +3892,7 @@
         <v>13511.879643</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3912,7 +3912,7 @@
         <v>6800.001031</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3932,7 +3932,7 @@
         <v>5263.862792</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3952,7 +3952,7 @@
         <v>12774.301538</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3972,7 +3972,7 @@
         <v>10394.480748</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3992,7 +3992,7 @@
         <v>19794.399985</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4012,7 +4012,7 @@
         <v>11541.420105</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4032,7 +4032,7 @@
         <v>16713.868297</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4052,7 +4052,7 @@
         <v>28204.232136</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4072,7 +4072,7 @@
         <v>13518.839031</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4092,7 +4092,7 @@
         <v>1355.723664999998</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4112,7 +4112,7 @@
         <v>0.003224000000045635</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4132,7 +4132,7 @@
         <v>22978.796961</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4152,7 +4152,7 @@
         <v>0.001893000000563916</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4172,7 +4172,7 @@
         <v>-0.001250000001164153</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4192,7 +4192,7 @@
         <v>0.002889999996114057</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4212,7 +4212,7 @@
         <v>11620.877664</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4232,7 +4232,7 @@
         <v>29100.49663</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4252,7 +4252,7 @@
         <v>38435.738728</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4272,7 +4272,7 @@
         <v>38435.73860700001</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4292,7 +4292,7 @@
         <v>38435.73964</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4312,7 +4312,7 @@
         <v>29492.170207</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4332,7 +4332,7 @@
         <v>35090.905029</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4352,7 +4352,7 @@
         <v>30883.718716</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4372,7 +4372,7 @@
         <v>26848.408268</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4392,7 +4392,7 @@
         <v>14991.466395</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4412,7 +4412,7 @@
         <v>34977.727293</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4432,7 +4432,7 @@
         <v>33713.464323</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4452,7 +4452,7 @@
         <v>27307.24652</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4472,7 +4472,7 @@
         <v>18929.832603</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4492,7 +4492,7 @@
         <v>21092.257108</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4512,7 +4512,7 @@
         <v>11156.287088</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4532,7 +4532,7 @@
         <v>9687.278374999994</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4552,7 +4552,7 @@
         <v>-0.0002560000066296197</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4572,7 +4572,7 @@
         <v>-0.0010889999975916</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4592,7 +4592,7 @@
         <v>-0.001403999995090999</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4612,7 +4612,7 @@
         <v>-0.0004160000025876798</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4632,7 +4632,7 @@
         <v>-3.700000524986535E-05</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4652,7 +4652,7 @@
         <v>-0.0005279999968479387</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4672,7 +4672,7 @@
         <v>-0.0004919999992125668</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4692,7 +4692,7 @@
         <v>-1.299999712500721E-05</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4712,7 +4712,7 @@
         <v>-0.0008670000024721958</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4732,7 +4732,7 @@
         <v>6669.535470000003</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4752,7 +4752,7 @@
         <v>11373.35311599999</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4772,7 +4772,7 @@
         <v>20523.605192</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4792,7 +4792,7 @@
         <v>7380.639103000001</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4812,7 +4812,7 @@
         <v>18320.332198</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4832,7 +4832,7 @@
         <v>12999.499306</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4852,7 +4852,7 @@
         <v>4478.877092999999</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4872,7 +4872,7 @@
         <v>15640.784986</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4892,7 +4892,7 @@
         <v>33827.199205</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4912,7 +4912,7 @@
         <v>8271.961327000001</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4932,7 +4932,7 @@
         <v>12506.431119</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4952,7 +4952,7 @@
         <v>11744.142922</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4972,7 +4972,7 @@
         <v>25412.42046</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4992,7 +4992,7 @@
         <v>20981.997408</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5012,7 +5012,7 @@
         <v>21899.65145300001</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5032,7 +5032,7 @@
         <v>24092.882599</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5052,7 +5052,7 @@
         <v>-0.0003199999991920777</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5072,7 +5072,7 @@
         <v>0.001198000005388167</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5092,7 +5092,7 @@
         <v>-3.999999898951501E-05</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5112,7 +5112,7 @@
         <v>-0.0003040000010514632</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5132,7 +5132,7 @@
         <v>7105.358390999998</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5152,7 +5152,7 @@
         <v>-0.001514000003226101</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5172,7 +5172,7 @@
         <v>2908.962823000002</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5192,7 +5192,7 @@
         <v>27928.654523</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5212,7 +5212,7 @@
         <v>29710.900179</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5232,7 +5232,7 @@
         <v>38435.738899</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5252,7 +5252,7 @@
         <v>6619.995802999998</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5272,7 +5272,7 @@
         <v>894.8746889999966</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5292,7 +5292,7 @@
         <v>12004.713943</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5312,7 +5312,7 @@
         <v>1981.623871000003</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5332,7 +5332,7 @@
         <v>-6.000002031214535E-06</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5352,7 +5352,7 @@
         <v>7879.640047000001</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5372,7 +5372,7 @@
         <v>4638.362213</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5392,7 +5392,7 @@
         <v>10921.191189</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5412,7 +5412,7 @@
         <v>7640.013306999997</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5432,7 +5432,7 @@
         <v>7969.012688999999</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5452,7 +5452,7 @@
         <v>13866.762283</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5472,7 +5472,7 @@
         <v>6626.219935999998</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5492,7 +5492,7 @@
         <v>13780.898724</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5512,7 +5512,7 @@
         <v>7634.273061</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5532,7 +5532,7 @@
         <v>8790.364091999996</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5552,7 +5552,7 @@
         <v>0.001140000000305008</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5572,7 +5572,7 @@
         <v>-0.0004269999990356155</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5592,7 +5592,7 @@
         <v>5655.942356</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5612,7 +5612,7 @@
         <v>-0.0003320000032545067</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5632,7 +5632,7 @@
         <v>5585.357183</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5652,7 +5652,7 @@
         <v>4164.036503000003</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5672,7 +5672,7 @@
         <v>29418.171411</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5692,7 +5692,7 @@
         <v>38435.738501</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5712,7 +5712,7 @@
         <v>37587.19767199999</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5732,7 +5732,7 @@
         <v>33641.007927</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5752,7 +5752,7 @@
         <v>31560.976104</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5772,7 +5772,7 @@
         <v>38435.73946</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5792,7 +5792,7 @@
         <v>31798.014312</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5812,7 +5812,7 @@
         <v>32580.959932</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5832,7 +5832,7 @@
         <v>33463.044056</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5852,7 +5852,7 @@
         <v>23228.633998</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5872,7 +5872,7 @@
         <v>33621.51545</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5892,7 +5892,7 @@
         <v>33493.789266</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5912,7 +5912,7 @@
         <v>27290.240201</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5932,7 +5932,7 @@
         <v>33977.941692</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5952,7 +5952,7 @@
         <v>35318.961155</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5972,7 +5972,7 @@
         <v>36217.303961</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5992,7 +5992,7 @@
         <v>35633.64241</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -6012,7 +6012,7 @@
         <v>35471.435031</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -6032,7 +6032,7 @@
         <v>37879.323023</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -6052,7 +6052,7 @@
         <v>36158.922172</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -6072,7 +6072,7 @@
         <v>26020.197586</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -6092,7 +6092,7 @@
         <v>5603.794386000001</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6112,7 +6112,7 @@
         <v>36164.291533</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6132,7 +6132,7 @@
         <v>23747.668834</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6152,7 +6152,7 @@
         <v>27205.279582</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6172,7 +6172,7 @@
         <v>38435.73885</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6192,7 +6192,7 @@
         <v>35826.83209</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6212,7 +6212,7 @@
         <v>34160.33015199999</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6232,7 +6232,7 @@
         <v>30789.639003</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6252,7 +6252,7 @@
         <v>25625.271952</v>
       </c>
       <c r="F239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6272,7 +6272,7 @@
         <v>22373.580279</v>
       </c>
       <c r="F240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6292,7 +6292,7 @@
         <v>11630.32582999999</v>
       </c>
       <c r="F241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6312,7 +6312,7 @@
         <v>25895.495235</v>
       </c>
       <c r="F242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6332,7 +6332,7 @@
         <v>3434.343480999996</v>
       </c>
       <c r="F243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6352,7 +6352,7 @@
         <v>7447.108850999997</v>
       </c>
       <c r="F244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6372,7 +6372,7 @@
         <v>17607.266339</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6392,7 +6392,7 @@
         <v>19518.889393</v>
       </c>
       <c r="F246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6412,7 +6412,7 @@
         <v>31685.09477</v>
       </c>
       <c r="F247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6432,7 +6432,7 @@
         <v>38435.739245</v>
       </c>
       <c r="F248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6452,7 +6452,7 @@
         <v>38435.739321</v>
       </c>
       <c r="F249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6472,7 +6472,7 @@
         <v>38435.738895</v>
       </c>
       <c r="F250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6492,7 +6492,7 @@
         <v>30000.20451</v>
       </c>
       <c r="F251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6512,7 +6512,7 @@
         <v>26998.122906</v>
       </c>
       <c r="F252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6532,7 +6532,7 @@
         <v>11468.207104</v>
       </c>
       <c r="F253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6552,7 +6552,7 @@
         <v>0.0005559999990509823</v>
       </c>
       <c r="F254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6572,7 +6572,7 @@
         <v>22575.490158</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6592,7 +6592,7 @@
         <v>16739.443552</v>
       </c>
       <c r="F256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6612,7 +6612,7 @@
         <v>33511.722475</v>
       </c>
       <c r="F257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6632,7 +6632,7 @@
         <v>25059.645706</v>
       </c>
       <c r="F258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6652,7 +6652,7 @@
         <v>37901.695127</v>
       </c>
       <c r="F259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6672,7 +6672,7 @@
         <v>22620.50168</v>
       </c>
       <c r="F260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6692,7 +6692,7 @@
         <v>21742.22766</v>
       </c>
       <c r="F261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -6712,7 +6712,7 @@
         <v>33707.37079</v>
       </c>
       <c r="F262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6732,7 +6732,7 @@
         <v>24526.300004</v>
       </c>
       <c r="F263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6752,7 +6752,7 @@
         <v>24228.741542</v>
       </c>
       <c r="F264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -6772,7 +6772,7 @@
         <v>23860.504755</v>
       </c>
       <c r="F265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -6792,7 +6792,7 @@
         <v>24384.770393</v>
       </c>
       <c r="F266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -6812,7 +6812,7 @@
         <v>28852.160578</v>
       </c>
       <c r="F267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -6832,7 +6832,7 @@
         <v>28314.280219</v>
       </c>
       <c r="F268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -6852,7 +6852,7 @@
         <v>19975.500577</v>
       </c>
       <c r="F269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -6872,7 +6872,7 @@
         <v>21614.042306</v>
       </c>
       <c r="F270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -6892,7 +6892,7 @@
         <v>13782.65636399999</v>
       </c>
       <c r="F271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -6912,7 +6912,7 @@
         <v>33636.644084</v>
       </c>
       <c r="F272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6932,7 +6932,7 @@
         <v>32491.565464</v>
       </c>
       <c r="F273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6952,7 +6952,7 @@
         <v>5363.319447000002</v>
       </c>
       <c r="F274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6972,7 +6972,7 @@
         <v>16944.707332</v>
       </c>
       <c r="F275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6992,7 +6992,7 @@
         <v>7534.674328000001</v>
       </c>
       <c r="F276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -7012,7 +7012,7 @@
         <v>17446.620987</v>
       </c>
       <c r="F277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -7032,7 +7032,7 @@
         <v>0.0006479999938164838</v>
       </c>
       <c r="F278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -7052,7 +7052,7 @@
         <v>6543.540635000005</v>
       </c>
       <c r="F279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -7072,7 +7072,7 @@
         <v>17815.451383</v>
       </c>
       <c r="F280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -7092,7 +7092,7 @@
         <v>15929.367578</v>
       </c>
       <c r="F281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -7112,7 +7112,7 @@
         <v>34272.342058</v>
       </c>
       <c r="F282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -7132,7 +7132,7 @@
         <v>38435.73888</v>
       </c>
       <c r="F283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -7152,7 +7152,7 @@
         <v>27511.610757</v>
       </c>
       <c r="F284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -7172,7 +7172,7 @@
         <v>23106.76437</v>
       </c>
       <c r="F285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -7192,7 +7192,7 @@
         <v>35681.897843</v>
       </c>
       <c r="F286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -7212,7 +7212,7 @@
         <v>11029.815287</v>
       </c>
       <c r="F287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -7232,7 +7232,7 @@
         <v>24319.972639</v>
       </c>
       <c r="F288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -7252,7 +7252,7 @@
         <v>16022.131079</v>
       </c>
       <c r="F289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -7272,7 +7272,7 @@
         <v>26849.589132</v>
       </c>
       <c r="F290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -7292,7 +7292,7 @@
         <v>24738.770061</v>
       </c>
       <c r="F291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -7312,7 +7312,7 @@
         <v>31532.638939</v>
       </c>
       <c r="F292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -7332,7 +7332,7 @@
         <v>31863.830671</v>
       </c>
       <c r="F293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -7352,7 +7352,7 @@
         <v>10358.399378</v>
       </c>
       <c r="F294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -7372,7 +7372,7 @@
         <v>29346.28837</v>
       </c>
       <c r="F295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -7392,7 +7392,7 @@
         <v>16736.024879</v>
       </c>
       <c r="F296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -7412,7 +7412,7 @@
         <v>15260.040666</v>
       </c>
       <c r="F297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -7432,7 +7432,7 @@
         <v>6481.951938000006</v>
       </c>
       <c r="F298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -7452,7 +7452,7 @@
         <v>-0.000406999999540858</v>
       </c>
       <c r="F299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -7472,7 +7472,7 @@
         <v>0.0001570000022184104</v>
       </c>
       <c r="F300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -7492,7 +7492,7 @@
         <v>-0.0007740000000922009</v>
       </c>
       <c r="F301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -7512,7 +7512,7 @@
         <v>-0.0004479999988689087</v>
       </c>
       <c r="F302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -7532,7 +7532,7 @@
         <v>0.0004360000020824373</v>
       </c>
       <c r="F303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -7552,7 +7552,7 @@
         <v>0.0008930000039981678</v>
       </c>
       <c r="F304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -7572,7 +7572,7 @@
         <v>1025.226390999997</v>
       </c>
       <c r="F305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -7592,7 +7592,7 @@
         <v>2475.735300000008</v>
       </c>
       <c r="F306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -7612,7 +7612,7 @@
         <v>40698.553184</v>
       </c>
       <c r="F307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -7632,7 +7632,7 @@
         <v>22601.418791</v>
       </c>
       <c r="F308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -7652,7 +7652,7 @@
         <v>34185.314034</v>
       </c>
       <c r="F309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -7672,7 +7672,7 @@
         <v>23798.622737</v>
       </c>
       <c r="F310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -7692,7 +7692,7 @@
         <v>16084.937723</v>
       </c>
       <c r="F311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -7712,7 +7712,7 @@
         <v>145.7386230000047</v>
       </c>
       <c r="F312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -7732,7 +7732,7 @@
         <v>204.7166269999943</v>
       </c>
       <c r="F313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -7752,7 +7752,7 @@
         <v>0.0004650000046240166</v>
       </c>
       <c r="F314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -7772,7 +7772,7 @@
         <v>24961.925808</v>
       </c>
       <c r="F315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -7792,7 +7792,7 @@
         <v>20204.976565</v>
       </c>
       <c r="F316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -7812,7 +7812,7 @@
         <v>18132.815252</v>
       </c>
       <c r="F317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -7832,7 +7832,7 @@
         <v>16882.815826</v>
       </c>
       <c r="F318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -7852,7 +7852,7 @@
         <v>24055.352275</v>
       </c>
       <c r="F319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -7872,7 +7872,7 @@
         <v>16086.840926</v>
       </c>
       <c r="F320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -7892,7 +7892,7 @@
         <v>9981.978404000001</v>
       </c>
       <c r="F321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -7912,7 +7912,7 @@
         <v>0.0005930000043008476</v>
       </c>
       <c r="F322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -7932,7 +7932,7 @@
         <v>-0.001466999994590878</v>
       </c>
       <c r="F323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -7952,7 +7952,7 @@
         <v>0.00100899999961257</v>
       </c>
       <c r="F324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -7972,7 +7972,7 @@
         <v>-0.0009189999982481822</v>
       </c>
       <c r="F325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -7992,7 +7992,7 @@
         <v>-0.0009009999994304962</v>
       </c>
       <c r="F326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -8012,7 +8012,7 @@
         <v>0.0005279999968479387</v>
       </c>
       <c r="F327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -8032,7 +8032,7 @@
         <v>-0.0007750000004307367</v>
       </c>
       <c r="F328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -8052,7 +8052,7 @@
         <v>14586.350324</v>
       </c>
       <c r="F329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -8072,7 +8072,7 @@
         <v>17466.799657</v>
       </c>
       <c r="F330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -8092,7 +8092,7 @@
         <v>40698.553903</v>
       </c>
       <c r="F331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -8112,7 +8112,7 @@
         <v>40698.553334</v>
       </c>
       <c r="F332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -8132,7 +8132,7 @@
         <v>25965.236622</v>
       </c>
       <c r="F333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -8152,7 +8152,7 @@
         <v>21552.844496</v>
       </c>
       <c r="F334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -8172,7 +8172,7 @@
         <v>25661.210615</v>
       </c>
       <c r="F335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -8192,7 +8192,7 @@
         <v>27217.944534</v>
       </c>
       <c r="F336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -8212,7 +8212,7 @@
         <v>11825.687836</v>
       </c>
       <c r="F337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -8232,7 +8232,7 @@
         <v>21901.495966</v>
       </c>
       <c r="F338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -8252,7 +8252,7 @@
         <v>17239.457598</v>
       </c>
       <c r="F339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -8272,7 +8272,7 @@
         <v>17934.267017</v>
       </c>
       <c r="F340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -8292,7 +8292,7 @@
         <v>13754.62329</v>
       </c>
       <c r="F341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -8312,7 +8312,7 @@
         <v>21416.822639</v>
       </c>
       <c r="F342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -8332,7 +8332,7 @@
         <v>29148.856437</v>
       </c>
       <c r="F343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -8352,7 +8352,7 @@
         <v>23139.792126</v>
       </c>
       <c r="F344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -8372,7 +8372,7 @@
         <v>20904.04589199999</v>
       </c>
       <c r="F345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -8392,7 +8392,7 @@
         <v>17971.164497</v>
       </c>
       <c r="F346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -8412,7 +8412,7 @@
         <v>0.001129999996919651</v>
       </c>
       <c r="F347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -8432,7 +8432,7 @@
         <v>0.001127000003180001</v>
       </c>
       <c r="F348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -8452,7 +8452,7 @@
         <v>0.0001849999971454963</v>
       </c>
       <c r="F349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -8472,7 +8472,7 @@
         <v>-0.0001750000010360964</v>
       </c>
       <c r="F350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -8492,7 +8492,7 @@
         <v>0.001926999997522216</v>
       </c>
       <c r="F351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -8512,7 +8512,7 @@
         <v>-0.001776999997673556</v>
       </c>
       <c r="F352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -8532,7 +8532,7 @@
         <v>1908.660652999999</v>
       </c>
       <c r="F353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -8552,7 +8552,7 @@
         <v>20863.748034</v>
       </c>
       <c r="F354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -8572,7 +8572,7 @@
         <v>29271.0452</v>
       </c>
       <c r="F355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -8592,7 +8592,7 @@
         <v>40698.553619</v>
       </c>
       <c r="F356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -8612,7 +8612,7 @@
         <v>40698.553613</v>
       </c>
       <c r="F357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -8632,7 +8632,7 @@
         <v>25814.565212</v>
       </c>
       <c r="F358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -8652,7 +8652,7 @@
         <v>32454.761388</v>
       </c>
       <c r="F359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -8672,7 +8672,7 @@
         <v>32638.341458</v>
       </c>
       <c r="F360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -8692,7 +8692,7 @@
         <v>16407.933207</v>
       </c>
       <c r="F361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
